--- a/multicore-pt-regression/summary.xlsx
+++ b/multicore-pt-regression/summary.xlsx
@@ -157,7 +157,7 @@
   <dimension ref="A7:P44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9:M9"/>
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
